--- a/課題9/課題9 データ型.xlsx
+++ b/課題9/課題9 データ型.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\GitHub\sql_kadai\課題8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\GitHub\sql_kadai\課題9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
   <si>
     <t>部署</t>
     <rPh sb="0" eb="2">
@@ -512,27 +512,67 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>FK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(6char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(3char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(4char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CHECK 0-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NUMBER(1,0)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NOT NULL,UNIQUE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>FK</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DATE</t>
+    <t>VARCHAR2(3char)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -540,54 +580,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>VARCHAR2(5char)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR2(6char)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR2(3char)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR2(4char)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CHECK 0-1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NUMBER(1,0)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NOT NULL,UNIQUE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CHAR(6)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR2(3char)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20char)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>VARCHAR2(50char)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -609,6 +601,18 @@
   </si>
   <si>
     <t>VARCHAR2(10char)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NOT NULL,FK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2(6)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第一四半期売上目E+C44:J44</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -979,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J44" sqref="C44:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1003,13 +1007,13 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
@@ -1017,7 +1021,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1048,22 +1052,22 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
@@ -1071,17 +1075,17 @@
         <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
@@ -1099,10 +1103,10 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
@@ -1126,10 +1130,10 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
@@ -1165,22 +1169,22 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
@@ -1188,15 +1192,15 @@
         <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
@@ -1223,19 +1227,19 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
@@ -1243,12 +1247,12 @@
         <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
@@ -1275,19 +1279,19 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
@@ -1296,10 +1300,10 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -1324,16 +1328,16 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.15">
@@ -1356,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>36</v>
@@ -1382,45 +1386,61 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
@@ -1458,45 +1478,61 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/課題9/課題9 データ型.xlsx
+++ b/課題9/課題9 データ型.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>部署</t>
     <rPh sb="0" eb="2">
@@ -588,10 +588,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>NUMBER(*)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>VARCHAR2(10char)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -613,6 +609,18 @@
   </si>
   <si>
     <t>第一四半期売上目E+C44:J44</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -983,18 +991,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J44" sqref="C44:J44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +1013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
@@ -1016,7 +1024,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1025,12 +1033,12 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>58</v>
       </c>
@@ -1070,7 +1078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1088,12 +1096,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1101,7 +1109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
@@ -1109,18 +1117,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1128,7 +1136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1136,18 +1144,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1167,9 +1175,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>66</v>
@@ -1181,13 +1189,13 @@
         <v>67</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
@@ -1203,12 +1211,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1225,9 +1233,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>67</v>
@@ -1236,13 +1244,13 @@
         <v>68</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>44</v>
       </c>
@@ -1252,15 +1260,15 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
@@ -1277,7 +1285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
@@ -1285,16 +1293,16 @@
         <v>55</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1307,12 +1315,12 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
@@ -1326,21 +1334,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
@@ -1350,17 +1358,17 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>36</v>
@@ -1384,36 +1392,36 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
@@ -1442,12 +1450,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
@@ -1476,36 +1484,36 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>48</v>
       </c>

--- a/課題9/課題9 データ型.xlsx
+++ b/課題9/課題9 データ型.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\GitHub\sql_kadai\課題9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\応用演習\sqlコピー\課題9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スポーツ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>スポーツ種別コード</t>
     <rPh sb="4" eb="6">
       <t>シュベツ</t>
@@ -621,6 +617,10 @@
   </si>
   <si>
     <t>INTEGER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スポーツタイプ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -662,12 +662,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -699,14 +705,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,555 +1000,851 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="D11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="E30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+      <c r="D39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="D40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J44" s="1" t="s">
+      <c r="D45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>49</v>
+      <c r="D51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
